--- a/biology/Botanique/Base_de_données_européenne_des_pommes_de_terre_cultivées/Base_de_données_européenne_des_pommes_de_terre_cultivées.xlsx
+++ b/biology/Botanique/Base_de_données_européenne_des_pommes_de_terre_cultivées/Base_de_données_européenne_des_pommes_de_terre_cultivées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Base_de_donn%C3%A9es_europ%C3%A9enne_des_pommes_de_terre_cultiv%C3%A9es</t>
+          <t>Base_de_données_européenne_des_pommes_de_terre_cultivées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La base de données européenne des pommes de terre cultivées (ECPD, European Cultivated Potato Database ) est une base de données collaborative en ligne donnant les caractéristiques des variétés de pommes de terre cultivées en Europe.
 Les recherches peuvent être effectuées par noms de variétés, ou par les différentes caractéristiques enregistrées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Base_de_donn%C3%A9es_europ%C3%A9enne_des_pommes_de_terre_cultiv%C3%A9es</t>
+          <t>Base_de_données_européenne_des_pommes_de_terre_cultivées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Quelques chiffres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>159 848 observations
 29 contributeurs
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Base_de_donn%C3%A9es_europ%C3%A9enne_des_pommes_de_terre_cultiv%C3%A9es</t>
+          <t>Base_de_données_européenne_des_pommes_de_terre_cultivées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Caractéristiques et objectif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les données sont indexées par variétés, caractéristiques, pays d'origine, et contributeurs. La recherche permet de sélectionner facilement une variété donnée et les variétés similaires sur la base de critères botaniques.
 La base de données européenne des pommes de terre cultivées est le résultat de la collaboration entre participants de huit pays de l'Union européenne et cinq pays d'Europe de l'Est. Son objectif est d'être une source d'information sur les variétés que ces pays  entretiennent. Plus de vingt trois organisations scientifiques contribuent activement à cette entreprise.
